--- a/data/trans_bre/P2C_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>26.65319374932995</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.376668797916222</v>
+        <v>4.376668797916221</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2042914134573356</v>
@@ -649,7 +649,7 @@
         <v>0.577799974369785</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5970949524383412</v>
+        <v>0.5970949524383409</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4336838074687381</v>
+        <v>0.1807315847733563</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.265226929363209</v>
+        <v>7.672711466685605</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17.03545708129183</v>
+        <v>17.96435706043969</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.038590779753163</v>
+        <v>0.5994590606738782</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.009155063035955799</v>
+        <v>0.005898257798068777</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1206161956135725</v>
+        <v>0.1131396291133945</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3264667453840858</v>
+        <v>0.3551690127549361</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1011366442752822</v>
+        <v>0.04831372865686923</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.01920187280527</v>
+        <v>18.57264420999883</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>26.12828204500737</v>
+        <v>24.87147130832624</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>36.20646725765349</v>
+        <v>35.97146492865322</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.007374010716504</v>
+        <v>7.730977797937729</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4739218576329902</v>
+        <v>0.4564868523056722</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.447089289101493</v>
+        <v>0.4255387043986147</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9114380433336838</v>
+        <v>0.9015878213290145</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.408804822894889</v>
+        <v>1.317537967162722</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>21.61624305301478</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.891444147503052</v>
+        <v>5.891444147503055</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3556518391513575</v>
@@ -749,7 +749,7 @@
         <v>0.4372096923903426</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.9054420846132895</v>
+        <v>0.9054420846132902</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.065553647562956</v>
+        <v>6.96673684825554</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.24319778130041</v>
+        <v>16.70852708052849</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12.42257187959669</v>
+        <v>11.34680016816812</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.197031067314648</v>
+        <v>2.291790889749199</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1319328524665681</v>
+        <v>0.129320473495682</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2479279369217719</v>
+        <v>0.2534181123841294</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2259970804361223</v>
+        <v>0.2158819998635424</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2404275865342389</v>
+        <v>0.2489293507685014</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>26.66376037474589</v>
+        <v>27.85627162650631</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>33.14779133942957</v>
+        <v>33.34641708315714</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>30.7768890543528</v>
+        <v>30.70604979476862</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.480744615086149</v>
+        <v>9.891932501883998</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6400757221166806</v>
+        <v>0.6596920240731584</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6149506688447042</v>
+        <v>0.6283592873123691</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6983832777956526</v>
+        <v>0.7063636148421162</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.852304808252822</v>
+        <v>1.988901276447873</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.03358668970528</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.503680612786489</v>
+        <v>-1.503680612786487</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4378971880657005</v>
@@ -849,7 +849,7 @@
         <v>0.0443845159856717</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1351621164443057</v>
+        <v>-0.1351621164443056</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.663582480991145</v>
+        <v>7.079835870755594</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7874503057710505</v>
+        <v>1.590884888273143</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.241487436476584</v>
+        <v>-8.804087667223891</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.136873187316701</v>
+        <v>-5.604741154687054</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1579267405136962</v>
+        <v>0.1698546576626549</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0157871398101072</v>
+        <v>0.03318993738236099</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1908667624195459</v>
+        <v>-0.1756384864718003</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4771256205339425</v>
+        <v>-0.4458870181207127</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>26.88109289467094</v>
+        <v>28.37008587306087</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.14687934241939</v>
+        <v>19.58088817122878</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.04542057573003</v>
+        <v>13.47672022791432</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.361288546586016</v>
+        <v>3.337104811515271</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7546428241381931</v>
+        <v>0.7803029029186923</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4114228555622889</v>
+        <v>0.4266739470700657</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3065187191687344</v>
+        <v>0.3169912731481639</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4082468996307821</v>
+        <v>0.3925762325895339</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.00621646818499</v>
+        <v>16.30404153790325</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>24.96281369238385</v>
+        <v>25.35599226442363</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10.943012776542</v>
+        <v>10.76012279252118</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.09821902163536</v>
+        <v>-1.320453916803043</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.438266094917365</v>
+        <v>0.4445371127979897</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4936867651510447</v>
+        <v>0.5056564659925047</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2203263822340988</v>
+        <v>0.2237042310325429</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09002558504821916</v>
+        <v>-0.1052972692946803</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>27.8034856600235</v>
+        <v>27.10257262907125</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>35.64354633711411</v>
+        <v>35.42427160099284</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22.24905031669106</v>
+        <v>22.48629083403969</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.570969247978806</v>
+        <v>4.558573082743154</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8647406280367553</v>
+        <v>0.8463087081540296</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.810674912407178</v>
+        <v>0.7972651320298281</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5119381181574717</v>
+        <v>0.5252452606618077</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4784930726610811</v>
+        <v>0.4516902742550231</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>11.7729493558962</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.359842100060213</v>
+        <v>7.359842100060218</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.446679137186872</v>
@@ -1049,7 +1049,7 @@
         <v>0.287380561007248</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.9517287835192149</v>
+        <v>0.951728783519216</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.030830113529967</v>
+        <v>5.669889762515442</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.776231353704949</v>
+        <v>9.348077374460832</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.413712479689599</v>
+        <v>4.208098118785298</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.068580473301204</v>
+        <v>3.966077640722171</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1789275289895136</v>
+        <v>0.1406934629167338</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1754330534479128</v>
+        <v>0.1838895142689927</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09398940891051837</v>
+        <v>0.09168407437373678</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.4349079099790708</v>
+        <v>0.3641501786387559</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.58536649526261</v>
+        <v>22.57008103716069</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.65653222504773</v>
+        <v>23.17855944489393</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.10632693932458</v>
+        <v>18.46360587862132</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.37700774229558</v>
+        <v>10.74880473726334</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8051177286540191</v>
+        <v>0.8159535990604784</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5453963746604743</v>
+        <v>0.5573456142416282</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4911721975525316</v>
+        <v>0.5019859356995808</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.785176432934452</v>
+        <v>1.816480547068626</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>5.050892405895635</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8.579848799286301</v>
+        <v>8.5798487992863</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.067700146298437</v>
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.565488701363134</v>
+        <v>7.15123915729705</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>12.07006317325413</v>
+        <v>13.09309735286608</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.927955171711775</v>
+        <v>-5.248418291929143</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.235199931730856</v>
+        <v>3.314853461875347</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2814445311158496</v>
+        <v>0.3220909106179962</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4899429557609579</v>
+        <v>0.5333244609903979</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1499380516898994</v>
+        <v>-0.1587982192558748</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3268393703731984</v>
+        <v>0.2769576482504249</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>22.37299708165335</v>
+        <v>22.30150563902288</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>29.49424200841266</v>
+        <v>29.47594468806373</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13.73639439283688</v>
+        <v>13.28432809821933</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12.21278343963266</v>
+        <v>12.10948176398968</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.355611596957356</v>
+        <v>2.597086874355218</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.670508058364057</v>
+        <v>2.920697415356831</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7841736053026551</v>
+        <v>0.7457782727270297</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>7.735392490534028</v>
+        <v>7.027297585163609</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>7.084896360810644</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.159558325223873</v>
+        <v>4.159558325223876</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2426971512793243</v>
@@ -1249,7 +1249,7 @@
         <v>0.1604187031201464</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4692933263165973</v>
+        <v>0.4692933263165976</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.884385295215661</v>
+        <v>5.967077902555479</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>9.40991791159024</v>
+        <v>9.108536553195302</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.650321607994808</v>
+        <v>4.183294316880198</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.711838637981336</v>
+        <v>2.776370063420154</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1511162349826015</v>
+        <v>0.151579385824415</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1875625580615476</v>
+        <v>0.1813739122988745</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08067767753529274</v>
+        <v>0.09409396126511355</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2702025332552743</v>
+        <v>0.2888751868012419</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.02357527824596</v>
+        <v>12.042692128627</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.01075335725202</v>
+        <v>15.15800410811419</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.10128208457388</v>
+        <v>10.30746086759769</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.617588036583676</v>
+        <v>5.559659383715789</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3418794854414513</v>
+        <v>0.3381768341077679</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3158886604039813</v>
+        <v>0.3216165513140431</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.239678252467553</v>
+        <v>0.2419694232133017</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6944297452154975</v>
+        <v>0.6951966591889109</v>
       </c>
     </row>
     <row r="25">
